--- a/CanBangChuyen1.xlsx
+++ b/CanBangChuyen1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Sewing-Line-Simulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My_PC\OneDrive - VNU-HCMUS\Desktop\SW_TTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86CFB1F-D131-4F91-8227-24F1291C3A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDAEA8-CA47-43B2-9B38-A78DA5618721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hat1" sheetId="1" r:id="rId1"/>
@@ -584,24 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,6 +603,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2401,7 +2401,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,63 +2440,63 @@
     </row>
     <row r="2" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:24" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="24">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="18">
         <v>0</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="18">
         <v>0.39</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="18">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
@@ -2515,22 +2515,22 @@
     </row>
     <row r="6" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="24">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="18">
         <v>3</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="18">
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -2573,22 +2573,22 @@
     </row>
     <row r="7" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="24">
+      <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="18">
         <v>1</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="18">
         <v>0.17</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="18">
         <v>1</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -2631,22 +2631,22 @@
     </row>
     <row r="8" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="24">
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="18">
         <v>2</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="18">
         <v>0.38</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="18">
         <v>1</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -2689,58 +2689,58 @@
     </row>
     <row r="9" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="26">
+      <c r="B9" s="20">
         <v>5</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="20">
         <v>4</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="20">
         <v>0.54</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="20">
         <v>1</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="24">
+      <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="18">
         <v>1</v>
       </c>
       <c r="K10" s="9" t="s">
@@ -2783,22 +2783,22 @@
     </row>
     <row r="11" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="24">
+      <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="18">
         <v>6</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="18">
         <v>0.4</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="18">
         <v>1</v>
       </c>
       <c r="K11" s="6" t="s">
@@ -2841,22 +2841,22 @@
     </row>
     <row r="12" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="24">
+      <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <v>0</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="18">
         <v>0.52</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -2899,22 +2899,22 @@
     </row>
     <row r="13" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="24">
+      <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="18">
         <v>8</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="18">
         <v>0.26</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="18">
         <v>1</v>
       </c>
       <c r="K13" s="12"/>
@@ -2932,22 +2932,22 @@
     </row>
     <row r="14" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="24">
+      <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="18">
         <v>9</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="18">
         <v>0.47</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="18">
         <v>1</v>
       </c>
       <c r="R14" s="3"/>
@@ -2959,31 +2959,31 @@
     </row>
     <row r="15" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="24">
+      <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="18">
         <v>0.67</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="18">
         <v>1</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="26" t="s">
         <v>101</v>
       </c>
       <c r="N15" s="4" t="s">
@@ -3008,27 +3008,27 @@
     </row>
     <row r="16" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="24">
+      <c r="B16" s="18">
         <v>12</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="18">
         <v>11</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="18">
         <v>0.6</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="18">
         <v>1</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
       <c r="N16" s="4">
         <v>14</v>
       </c>
@@ -3051,22 +3051,22 @@
     </row>
     <row r="17" spans="1:23" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="24">
+      <c r="B17" s="18">
         <v>13</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="18">
         <v>12</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="18">
         <v>0.46</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="18">
         <v>1</v>
       </c>
       <c r="K17" s="3"/>
@@ -3085,22 +3085,22 @@
     </row>
     <row r="18" spans="1:23" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="24">
+      <c r="B18" s="18">
         <v>14</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="18">
         <v>13</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="18">
         <v>0.54</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="18">
         <v>1</v>
       </c>
       <c r="K18" s="3"/>
@@ -3113,379 +3113,379 @@
     </row>
     <row r="19" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="24">
+      <c r="B19" s="18">
         <v>15</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="20">
         <v>0</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="20">
         <v>0.2</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="24">
+      <c r="B20" s="18">
         <v>16</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="18">
         <v>15</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="18">
         <v>0.16</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="24">
+      <c r="B21" s="18">
         <v>17</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="18">
         <v>0</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="18">
         <v>0.47</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="24">
+      <c r="B22" s="18">
         <v>18</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="18">
         <v>17</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="18">
         <v>0.6</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="24">
+      <c r="B23" s="18">
         <v>19</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="18">
         <v>18</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="18">
         <v>0.24</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="24">
+      <c r="B24" s="18">
         <v>20</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="18">
         <v>19</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="18">
         <v>0.51</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="24">
+      <c r="B25" s="18">
         <v>21</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="18">
         <v>0.24</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="24">
+      <c r="B26" s="18">
         <v>22</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="18">
         <v>14</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="18">
         <v>0.24</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="24">
+      <c r="B27" s="18">
         <v>23</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="18">
         <v>0.78</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="26">
+      <c r="B28" s="20">
         <v>24</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="20">
         <v>23</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="20">
         <v>0.46</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="24">
+      <c r="B29" s="18">
         <v>25</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="18">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="24">
+      <c r="B30" s="18">
         <v>26</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="18">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="24">
+      <c r="B31" s="18">
         <v>27</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="18">
         <v>0.37</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="24">
+      <c r="B32" s="18">
         <v>28</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="18">
         <v>0.7</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="24">
+      <c r="B33" s="18">
         <v>29</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="18">
         <v>28</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="18">
         <v>0.73</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="24">
+      <c r="B34" s="18">
         <v>30</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="18">
         <v>29</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="18">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="24">
+      <c r="B35" s="18">
         <v>31</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="18">
         <v>30</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="18">
         <v>0.13</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="26">
+      <c r="B36" s="20">
         <v>32</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="20">
         <v>31</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="20">
         <v>2</v>
       </c>
     </row>
